--- a/content/Book Seven 1-10.xlsx
+++ b/content/Book Seven 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0532EC0-8E4F-4E2B-89D4-BF634C098684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF74656-68FC-4B30-B29A-2743BC8D3427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="708" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="708" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 7-1" sheetId="1" r:id="rId1"/>
@@ -25824,7 +25824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A514" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
@@ -69353,8 +69353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E524"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:A524"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70808,7 +70808,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>6558</v>
+        <v>6561</v>
       </c>
       <c r="B92" s="2">
         <v>12</v>
@@ -70825,7 +70825,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>6561</v>
+        <v>6559</v>
       </c>
       <c r="B93" s="2">
         <v>12</v>
